--- a/public/template/absen/Template_Export_Absen.xlsx
+++ b/public/template/absen/Template_Export_Absen.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadmukhtar/Projects/rpc-be/public/template/absen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2612F365-7078-B24E-B3D7-72F6AD75E624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB9DF99-E643-D647-B7FA-7015DA35C068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16640" xr2:uid="{0674CD87-AF00-EC40-A640-CA30B1852CB8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data Partner" sheetId="1" r:id="rId1"/>
+    <sheet name="Data Rekap Absen" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/public/template/absen/Template_Export_Absen.xlsx
+++ b/public/template/absen/Template_Export_Absen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadmukhtar/Projects/rpc-be/public/template/absen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB9DF99-E643-D647-B7FA-7015DA35C068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E6118D-1B1F-744F-842F-423F354A18D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16640" xr2:uid="{0674CD87-AF00-EC40-A640-CA30B1852CB8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Nama</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Lokasi Kepulangan</t>
+  </si>
+  <si>
+    <t>Lokasi</t>
   </si>
 </sst>
 </file>
@@ -454,24 +457,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0BD312-7EF2-F445-B81C-635468D350A0}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
     <col min="8" max="8" width="17.1640625" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
     <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" customWidth="1"/>
+    <col min="14" max="14" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -479,36 +487,39 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
